--- a/Refined_Program/Report_Inh/Rep2_11mM_Inh_AUC.xlsx
+++ b/Refined_Program/Report_Inh/Rep2_11mM_Inh_AUC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +464,20 @@
           <t>AUC (trap)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amplitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,24 +491,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Islet 2</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cell 2</t>
+          <t>Cell 1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1309.143097171651</v>
+        <v>4983.343076922926</v>
       </c>
       <c r="G2" t="n">
-        <v>1310.616336460366</v>
+        <v>4995.010192307534</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01883416517562753</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8627634249312433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -512,24 +528,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Islet 2</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cell 4</t>
+          <t>Cell 2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1419.379321521141</v>
+        <v>786.7911059670533</v>
       </c>
       <c r="G3" t="n">
-        <v>1421.897687986137</v>
+        <v>789.7518197016211</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02032107295265076</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1472042799219597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -543,24 +565,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Islet 2</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cell 6</t>
+          <t>Cell 3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>805.072960151787</v>
+        <v>1052.957935996531</v>
       </c>
       <c r="G4" t="n">
-        <v>806.6233444022623</v>
+        <v>1056.527530068695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02032107295265128</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.18132897628126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -574,24 +602,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Islet 2</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cell 13</t>
+          <t>Cell 4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1947.693681430278</v>
+        <v>926.8694568965224</v>
       </c>
       <c r="G5" t="n">
-        <v>1950.543891710652</v>
+        <v>928.5565293103155</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01954938663799309</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0941823028381481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -605,24 +639,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Islet 2</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cell 26</t>
+          <t>Cell 5</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1497.770855295842</v>
+        <v>1258.625735294077</v>
       </c>
       <c r="G6" t="n">
-        <v>1498.844011685697</v>
+        <v>1261.958455882313</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02115618553974594</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1497787341373424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -636,24 +676,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Islet 2</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>Cell 6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3541.390019365721</v>
+        <v>10100.39722222191</v>
       </c>
       <c r="G7" t="n">
-        <v>3546.532793209829</v>
+        <v>10137.98916666635</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01716001716001653</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.206835143140255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -662,7 +708,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -672,19 +718,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cell 1</t>
+          <t>Cell 7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1153.776400953851</v>
+        <v>6726.554818481634</v>
       </c>
       <c r="G8" t="n">
-        <v>1157.181538494304</v>
+        <v>6755.997904290216</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02413127413127288</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.363918522511625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -693,7 +745,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,19 +755,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cell 2</t>
+          <t>Cell 8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2797.748496872976</v>
+        <v>653.376766304327</v>
       </c>
       <c r="G9" t="n">
-        <v>2803.207632628854</v>
+        <v>656.2877792874189</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02340002340002215</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1182541751641346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -724,7 +782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,19 +792,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cell 3</t>
+          <t>Cell 9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1187.684977916201</v>
+        <v>925.0574167838435</v>
       </c>
       <c r="G10" t="n">
-        <v>1190.715908550402</v>
+        <v>931.4659364744198</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.022382631078282</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.09196349918477598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -755,7 +819,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +829,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cell 4</t>
+          <t>Cell 10</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1593.594381860212</v>
+        <v>262.9971624681491</v>
       </c>
       <c r="G11" t="n">
-        <v>1596.750523541321</v>
+        <v>263.7099073025674</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01716001716001777</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05389709867785675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -786,7 +856,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,19 +866,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cell 5</t>
+          <t>Cell 11</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1597.988187047707</v>
+        <v>1283.603344777698</v>
       </c>
       <c r="G12" t="n">
-        <v>1602.413751623695</v>
+        <v>1287.503555294502</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02059202059202127</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1013850547313013</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -817,7 +893,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,19 +903,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>Cell 12</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2050.282729347834</v>
+        <v>212.6342498496625</v>
       </c>
       <c r="G13" t="n">
-        <v>2053.895336956529</v>
+        <v>214.299917318093</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01930501930501854</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.080164197888557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -848,29 +930,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Islet 3</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cell 2</t>
+          <t>Cell 13</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2158.416979395121</v>
+        <v>2737.598484513187</v>
       </c>
       <c r="G14" t="n">
-        <v>2163.999786278068</v>
+        <v>2752.400735619382</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02662761283450914</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.515911965330524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -879,29 +967,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Islet 3</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cell 7</t>
+          <t>Cell 14</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1522.494849056691</v>
+        <v>6487.116710439813</v>
       </c>
       <c r="G15" t="n">
-        <v>1532.908603773671</v>
+        <v>6496.097956336068</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02032107295265085</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1329573502249097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -910,29 +1004,35 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Islet 3</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cell 12</t>
+          <t>Cell 15</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2700.380132862929</v>
+        <v>18025.98981900396</v>
       </c>
       <c r="G16" t="n">
-        <v>2707.369960556516</v>
+        <v>18071.76894796323</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02340002340002196</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.631451427741244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -941,29 +1041,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Islet 3</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cell 15</t>
+          <t>Cell 16</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1180.752351097247</v>
+        <v>213.0318128330306</v>
       </c>
       <c r="G17" t="n">
-        <v>1186.044278996934</v>
+        <v>213.6708309280572</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02271178741766849</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04646927611853607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -972,55 +1078,5766 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10wt% RTG Inh</t>
+          <t>NoRTG Inh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Islet 3</t>
+          <t>Islet 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cell 16</t>
+          <t>Cell 17</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>594.0679940945219</v>
+        <v>68168.6458333312</v>
       </c>
       <c r="G18" t="n">
-        <v>597.9597750000338</v>
+        <v>68475.05208333117</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01930501930501822</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.988937450378614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cell 18</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>225.3492697712799</v>
+      </c>
+      <c r="G19" t="n">
+        <v>226.4644185726024</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02490970232905577</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03221644255957579</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cell 19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>397.5922662440445</v>
+      </c>
+      <c r="G20" t="n">
+        <v>399.1558240887355</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01716001716001626</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1005628319321427</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cell 20</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>243.8404495320777</v>
+      </c>
+      <c r="G21" t="n">
+        <v>245.1659634023987</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01735282634158941</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.07229113196797976</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cell 21</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>951.789832268341</v>
+      </c>
+      <c r="G22" t="n">
+        <v>953.5135682907046</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01608751608751518</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2683940278154728</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cell 22</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>34587.18374999891</v>
+      </c>
+      <c r="G23" t="n">
+        <v>34668.12124999891</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02271178741766849</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.77959490435002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cell 23</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1118.311411131767</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1120.856931512483</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02662761283450789</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04263427107172246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cell 24</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1604.168144489622</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1605.728766221173</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02206287920573511</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03814765215006999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cell 25</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1339.334321734703</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1343.796945284879</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02271178741767049</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1646675886913966</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cell 26</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>417470.6608333203</v>
+      </c>
+      <c r="G27" t="n">
+        <v>418999.5162499867</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01906668573335137</v>
+      </c>
+      <c r="I27" t="n">
+        <v>100.6113660733849</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cell 27</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1407.832743580016</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1413.157990936511</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02271178741766861</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1786402682267036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cell 31</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2438.998015236527</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2443.844139935806</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02032107295265076</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1340383252849526</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1118.027230255804</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1122.363738958285</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01755001755001811</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06970735673332307</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1118.027230255804</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1122.363738958285</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01755001755001811</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.06970735673332307</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4556.53249906882</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4560.712431098616</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.02032107295265067</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2034541734185202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1282.262146457564</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1283.803381405758</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02413127413127278</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08195874207830955</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>741.315555555532</v>
+      </c>
+      <c r="G34" t="n">
+        <v>746.2536945392254</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01716001716001613</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1864107089984448</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cell 4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1419.379321521141</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1421.897687986137</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.01697144554287316</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.09803417087007382</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cell 5</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2586.842341748913</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2592.962673801601</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01775174188967196</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2560693075618357</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cell 6</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>805.072960151787</v>
+      </c>
+      <c r="G37" t="n">
+        <v>806.6233444022623</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02032107295265076</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2052445138149011</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4444.207893748273</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4448.282783069443</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02145002145002025</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1479742030304618</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cell 8</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3140.149913093799</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3144.693167245984</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01514119161177897</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.2209870953018531</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cell 9</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1725.155787576839</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1727.51229224082</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.01930501930501822</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.09027091923174546</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cell 10</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>6155.261450830871</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6163.881182479064</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02271178741766861</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.4617570766287629</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cell 11</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2238.988138586932</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2241.671783665434</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.02206287920573505</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2119803497039419</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cell 12</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2600.952393616978</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2605.050930851021</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02087029114056024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2734760104978942</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cell 13</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1947.693681430278</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1950.543891710652</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02376002376002243</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1633631907293553</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cell 14</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1925.740983339309</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1934.691539297295</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02340002340002208</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3262985603396711</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cell 15</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1142.756887550165</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1145.204324356213</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02662761283450789</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.07585640433197449</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cell 16</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1428.620890572344</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1431.309650673355</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02271178741766838</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.1239006346924357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cell 17</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2287.361727551996</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2291.479067087673</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02206287920573511</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1335802214446549</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cell 19</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>5714.985740740563</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5730.402407407226</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.02087029114056024</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9447791326424353</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cell 20</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>755778.128636355</v>
+      </c>
+      <c r="G50" t="n">
+        <v>756654.5493181729</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02087029114056024</v>
+      </c>
+      <c r="I50" t="n">
+        <v>122.1552031474373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Cell 21</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>246228.7598076857</v>
+      </c>
+      <c r="G51" t="n">
+        <v>246724.0724038395</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.02271178741766849</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16.04668887167213</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cell 22</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3120.069827456779</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3123.955798949653</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01980001980001869</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.209407799907986</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cell 23</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>20675.04107773838</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20692.20097173128</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01883416517562749</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9486382952722465</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cell 26</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1497.770855295842</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1498.844011685697</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01755001755001656</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.4038734150008099</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Cell 27</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2520.015862640931</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2529.277647644249</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02087029114056113</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.56272901572724</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3270.255613652803</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3275.488849854694</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02145002145002025</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.1595276891943533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3270.255613652803</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3275.488849854694</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.02145002145002025</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1595276891943533</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2347.652658045904</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2354.106725933834</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.02340002340002414</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.3505159206417989</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2186.895480112427</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2191.708155885829</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.02032107295265076</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2546238364290234</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1866.331544612736</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1880.502420033611</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01906668573335209</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.630724214390586</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>37325.5597826075</v>
+      </c>
+      <c r="G61" t="n">
+        <v>37455.76358695534</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.01860724752290985</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.169234590988864</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cell 8</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>92698.86395522107</v>
+      </c>
+      <c r="G62" t="n">
+        <v>92967.84705223585</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.01544401544401525</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.969785466332922</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Cell 9</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2005.107290589389</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2006.864981902729</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.022062879205735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.212265087529149</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cell 10</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>8940.63203703675</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8979.601944444161</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.02206287920573511</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.804998546850044</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cell 11</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>10202.78020858132</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10216.92873957059</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.01625685836212079</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7058273800685892</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Cell 12</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>551.2807417046021</v>
+      </c>
+      <c r="G66" t="n">
+        <v>554.3560507481933</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0286000286000295</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.06906778884438003</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cell 13</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>85748.76673610952</v>
+      </c>
+      <c r="G67" t="n">
+        <v>85844.69565972059</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.02115618553974605</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.626370660404362</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cell 14</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>35616.17499999889</v>
+      </c>
+      <c r="G68" t="n">
+        <v>35699.77249999887</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.02271178741766844</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.75109105286532</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cell 15</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>236.6295098039143</v>
+      </c>
+      <c r="G69" t="n">
+        <v>237.072784313718</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.01860724752290984</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.09671633940277902</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cell 16</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>910.6434643226182</v>
+      </c>
+      <c r="G70" t="n">
+        <v>912.7265796276855</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0200571629143046</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.2636135662372148</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cell 17</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1777.490298969018</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1783.720984536026</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.02340002340002308</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.2377261340777608</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Cell 18</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1486.861834462684</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1492.64232333006</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.02757859900717001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3656325072092184</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cell 19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>807.412642814166</v>
+      </c>
+      <c r="G73" t="n">
+        <v>810.0084831629329</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.02490970232905591</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.1034328558235174</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Cell 20</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>362.6076594845682</v>
+      </c>
+      <c r="G74" t="n">
+        <v>363.9754245880746</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.02271178741766849</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.05346235418566575</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Cell 21</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>5458.831836283037</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5460.868882743218</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.01954938663799314</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.1790163417891981</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Cell 22</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3573.669739644856</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3577.415278106396</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0203210729526508</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1484448785998569</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Cell 23</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>981.5543389553555</v>
+      </c>
+      <c r="G77" t="n">
+        <v>984.5047266049742</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.02206287920573511</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.07706547853607515</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Cell 25</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>11047.90865269425</v>
+      </c>
+      <c r="G78" t="n">
+        <v>11072.89362275414</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.01755001755001725</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.076917351517814</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Cell 26</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>2118.576766304281</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2122.28430706515</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.02145002145002014</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.1343733629442436</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Cell 28</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>125.2919942528696</v>
+      </c>
+      <c r="G80" t="n">
+        <v>125.7050545976971</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.01930501930501822</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.2576389346640529</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>4789.33526483036</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4797.472129237137</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.02340002340002208</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.1023607183029371</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NoRTG Inh</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>4789.33526483036</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4797.472129237137</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.02340002340002208</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1023607183029371</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1153.776400953851</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1157.181538494304</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.02206287920573705</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.05683307675225269</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2797.748496872976</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2803.207632628854</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.008676413170795467</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.2894519899747117</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1187.684977916201</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1190.715908550402</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.01404001404001448</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.1047275248036388</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Cell 4</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1593.594381860212</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1596.750523541321</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.01883416517562918</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1829610881458166</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cell 5</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1963.287765819284</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1967.302770458363</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.02145002145002213</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.07386314556934936</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cell 6</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>-318.9577432107301</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-320.7913991062268</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.01072501072501106</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.2758316742618931</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>26156.67640000028</v>
+      </c>
+      <c r="G89" t="n">
+        <v>26198.76760000029</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.01119131553914198</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.654951876180006</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cell 8</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>6408.850000000058</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6422.58750000006</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.01697144554287465</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.5185223448995462</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>2050.282729347834</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2053.895336956529</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.01135589370883524</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1040241074436588</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>2050.282729347834</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2053.895336956529</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.01135589370883524</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.1040241074436588</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2268.408233387384</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2272.805806320935</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.01883416517562753</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1703725003448384</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>855.5437469723984</v>
+      </c>
+      <c r="G94" t="n">
+        <v>856.6242031325787</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.02145002145002121</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.05087963596534784</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>912.3600228310606</v>
+      </c>
+      <c r="G95" t="n">
+        <v>913.6729899894731</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.02271178741766849</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.04162470586018796</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Cell 4</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2146.803516666601</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2153.2785166666</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.01980001980001958</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.1952169295888488</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Cell 5</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1658.324429047933</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1661.425932447985</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01930501930501822</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.1156981753782853</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Cell 6</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5438.524770642263</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5447.55858371566</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.01660646821937128</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.7652784793805658</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1072.792734297941</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1076.625355146346</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0200571629143064</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1130899918278123</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Cell 8</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>11511.56710431669</v>
+      </c>
+      <c r="G100" t="n">
+        <v>11538.15885791381</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.02032107295265067</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.918590435289909</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Cell 10</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2177.124361941449</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2181.672471873946</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.01152538465971274</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.4925519333929351</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Cell 11</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>476.0956415714361</v>
+      </c>
+      <c r="G102" t="n">
+        <v>476.4260895137772</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.02238263107828399</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.03123172771256089</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Cell 12</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1850.047076453246</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1854.093036077766</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.02087029114056207</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.186767596153131</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>651.1742275289969</v>
+      </c>
+      <c r="G104" t="n">
+        <v>653.0509155775591</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.01287001287001215</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.09525134067398633</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>651.1742275289969</v>
+      </c>
+      <c r="G105" t="n">
+        <v>653.0509155775591</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.01287001287001215</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.09525134067398633</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>-5.283600000000251</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-4.765600000000221</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>6.637022652077576</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>3889.763357385611</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3906.344689091895</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.02490970232905577</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.5644217789901234</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>3657.876115166466</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3664.834245742299</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.01678697330871137</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.5431443272063365</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Cell 4</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2631.610943087157</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2639.810808998957</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.02970002970002803</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.1944504839068153</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Cell 5</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1252.886671251791</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1257.028813617678</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0.1531046149508448</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Cell 6</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1168.029296875066</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1171.317382812566</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0.8725829530135263</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1559.102438697945</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1563.279616685546</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.02340002340002208</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5414059120897647</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Cell 8</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>891.5431205293777</v>
+      </c>
+      <c r="G113" t="n">
+        <v>899.030823497905</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0.4617178618264655</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Cell 9</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1140.609265010416</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1145.035284679153</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0.2694576596059139</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Cell 10</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2837.300820895683</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2849.821972947922</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.01331380641725395</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.4896719594217407</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Cell 11</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1581.639614354669</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1587.59300749875</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.03088803088802915</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.07177309866633674</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Cell 12</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>464.1222191730957</v>
+      </c>
+      <c r="G117" t="n">
+        <v>469.0186269667299</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.640967004111317</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Cell 13</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1986.982287250981</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1994.595584467053</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Cell 14</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>2970.725306270552</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2980.060430409733</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Cell 15</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>2049.124791202787</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2054.667838251787</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Cell 16</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1884.693187407878</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1892.177816035523</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.01404001404001325</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.321353303737022</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Cell 17</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>2407.602684346836</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2414.513260026009</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.02087029114056024</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.1660944478928634</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Cell 18</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>3947.296776795226</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3956.673398803553</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0179581574930402</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.2169248755581075</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Cell 19</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>557.1939106322606</v>
+      </c>
+      <c r="G124" t="n">
+        <v>559.8614752020599</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.01152538465971237</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.2519204352984807</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Cell 20</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>2839.671739360255</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2847.674022411871</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.04826254826254502</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.02059506987301374</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Cell 21</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1802.345268628611</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1806.977760529259</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Cell 22</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1176.969406694794</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1180.387049007883</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.01072501072501011</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.1030329253999871</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Cell 23</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1219.895205282871</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1226.448284524904</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.01625685836212061</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.2552223160377958</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Cell 24</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>7000.460995921537</v>
+      </c>
+      <c r="G129" t="n">
+        <v>7028.467241672725</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.01245485116452788</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.039765982926437</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Cell 25</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>165.9355110445617</v>
+      </c>
+      <c r="G130" t="n">
+        <v>166.2688365780701</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.01544401544401458</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.2360150661572753</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Cell 26</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>3219.05191020955</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3227.92655946489</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.01642980366384523</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.6108630169360234</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Cell 27</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>760.3087403201256</v>
+      </c>
+      <c r="G132" t="n">
+        <v>766.5485744708745</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.02206287920573511</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.2467064483216714</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Cell 28</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>3590.426506024296</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3597.369578313454</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.02490970232905577</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.3158310388958911</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Cell 29</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>12182.13367960703</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12213.28731547362</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Cell 30</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>618.2619797688203</v>
+      </c>
+      <c r="G135" t="n">
+        <v>622.2720953757583</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.01456982589057979</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.7749583762256429</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Cell 31</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>923.5394305600031</v>
+      </c>
+      <c r="G136" t="n">
+        <v>928.6944400506706</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.008128429181060303</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.9272728735360753</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Cell 32</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3431.583477871006</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3441.200324461917</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.02860002860002699</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.1780293795985268</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Cell 33</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1482.835967742021</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1492.762137096859</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.02206287920573522</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.542292553618112</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Cell 34</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1037.588738621645</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1040.074691157406</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.04290004290004049</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.02344065805425033</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Cell 35</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5606.874221411508</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5624.728915754572</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>2.114423589494239</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Cell 36</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>3242.931494662104</v>
+      </c>
+      <c r="G141" t="n">
+        <v>3253.300711743956</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>0.1187788034960153</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Cell 37</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>3763.103063178261</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3780.871091257392</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.02757859900716889</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9429179876423746</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Cell 38</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1221.614778125069</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1228.022397656319</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.02032107295265076</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.5502540467648753</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Cell 39</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1365.312926885778</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1371.704929430896</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.01529110440001443</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.2574724494170715</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>2172.983344685341</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2180.581919087027</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.02490970232905577</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.05525899694420655</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Islet 1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>2172.983344685341</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2180.581919087027</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.02490970232905577</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.05525899694420655</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1.915082561717011</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.917488444332264</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.02206287920573511</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.008495719152663478</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>3366.311614046582</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3372.804345199932</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.02970002970002803</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.1442971638551596</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.2374752438935645</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-0.2493490060881673</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.02860002860002699</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.01973024261111456</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Cell 4</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>-139.7569755555631</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-141.1158622222299</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.02490970232905577</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.1467238614289521</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Cell 5</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>25208.54848484991</v>
+      </c>
+      <c r="G151" t="n">
+        <v>25239.35378788022</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.01678697330871156</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.740186223528161</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Cell 6</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>2258.894400000127</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2267.519100000128</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.02413127413127278</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.1693535686094361</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>4544.5670454548</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4562.741193182073</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.02662761283450789</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.204110868605103</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>600.078046511662</v>
+      </c>
+      <c r="G154" t="n">
+        <v>601.8911694352497</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.01354738196843384</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.1021945956932107</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Islet 2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>600.078046511662</v>
+      </c>
+      <c r="G155" t="n">
+        <v>601.8911694352497</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.01354738196843384</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.1021945956932107</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Cell 1</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>2906.672738962872</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2916.664166309637</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.02271178741766844</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.2560693251855772</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Cell 2</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>2158.416979395121</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2163.999786278068</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.02271178741766849</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.5647596427629527</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Cell 3</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>8597.210681818664</v>
+      </c>
+      <c r="G158" t="n">
+        <v>8619.578863636851</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.02238263107828194</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.322661632663834</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Cell 4</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>30025.72957831499</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30107.64222891739</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.0134295786469692</v>
+      </c>
+      <c r="I159" t="n">
+        <v>17.93138087072973</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Cell 5</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>5580.445773234513</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5599.140951673176</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.01575919943266796</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.758457446993514</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Cell 6</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5654.53629059382</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5665.775092385536</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.01499418975147049</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.3946362053101886</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Cell 7</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1522.494849056691</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1532.908603773671</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.01485001485001402</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.473367981113416</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Cell 8</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>4582.53748558272</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4590.192474048701</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.01795815749304028</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.5145313312719511</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Cell 9</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>2599.941615384761</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2612.117935897585</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.01883416517562745</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.021715478450254</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Cell 10</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>2555.505293040434</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2566.008956044101</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.01544401544401458</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.156870119114454</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Cell 11</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>57.51703412073826</v>
+      </c>
+      <c r="G166" t="n">
+        <v>57.63500601487648</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.0257400257400243</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.05244519155227778</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Cell 12</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>2904.161838281248</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2910.74840668482</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.01660646821937051</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.4652398035445886</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Cell 13</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>3387.494541494582</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3391.574020968887</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.01485001485001402</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.4660014328857471</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Cell 14</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>4087.758287037267</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4093.56330439838</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.0179581574930402</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.2894397774894339</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Cell 15</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1480.434952978142</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1484.929467084725</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.02032107295265067</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.6103191090087718</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Cell 16</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>2042.802338582792</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2047.492889763895</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.02145002145002025</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.8010093951124366</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Cell 17</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>-86.89524677748088</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-87.22470742876999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.01331380641725395</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.1223916150560586</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>10wt% RTG Inh</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Islet 3</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Cell Avg</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>1888.886979740408</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1894.46178050699</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.01366727030443768</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.5747856759242129</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>10wt% RTG Inh</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Islet 3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>AVG</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F174" t="n">
         <v>1888.886979740408</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G174" t="n">
         <v>1894.46178050699</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.01366727030443768</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.5747856759242129</v>
       </c>
     </row>
   </sheetData>
